--- a/month_state_observation.xlsx
+++ b/month_state_observation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emil\Desktop\UNI\DataVisualization\R_opgaver\Project\DataVis-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B222A8-2773-4865-8E1C-8B23E0D93363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD08A07-B74B-43BF-9C56-30E5F16C1991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -258,14 +258,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -301,8 +305,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0564051-8342-4A23-9B5F-178088ADEB7C}" name="monthly_state_observations" displayName="monthly_state_observations" ref="A1:C635" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C635" xr:uid="{B0564051-8342-4A23-9B5F-178088ADEB7C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{517CD409-2C41-4BBE-8C76-37073C66E262}" uniqueName="1" name="Month" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{9F81F184-61EC-4B76-8EE1-9DD201F15DDC}" uniqueName="2" name="State" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{517CD409-2C41-4BBE-8C76-37073C66E262}" uniqueName="1" name="Month" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{9F81F184-61EC-4B76-8EE1-9DD201F15DDC}" uniqueName="2" name="State" queryTableFieldId="2" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{781DAEEA-22D3-41EA-B622-A0A8BE10D3CE}" uniqueName="3" name="Observation" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -575,18 +579,19 @@
   <dimension ref="A1:C635"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCellId="1" sqref="A1 A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B1" t="s">
@@ -597,7 +602,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -608,7 +613,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -619,7 +624,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -630,7 +635,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -641,7 +646,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -652,7 +657,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -663,7 +668,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -674,7 +679,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -685,7 +690,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -696,7 +701,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -707,7 +712,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -718,7 +723,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -729,7 +734,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -740,7 +745,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -751,7 +756,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -762,7 +767,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -773,7 +778,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -784,7 +789,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -795,7 +800,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -806,7 +811,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -817,7 +822,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -828,7 +833,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -839,7 +844,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -850,7 +855,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -861,7 +866,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -872,7 +877,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -883,7 +888,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -894,7 +899,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -905,7 +910,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -916,7 +921,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -927,7 +932,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -938,7 +943,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="2">
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -949,7 +954,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="2">
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -960,7 +965,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="2">
         <v>11</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -971,7 +976,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="2">
         <v>11</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -982,7 +987,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="2">
         <v>11</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -993,7 +998,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="2">
         <v>11</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1004,7 +1009,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="2">
         <v>11</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1015,7 +1020,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="2">
         <v>11</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1026,7 +1031,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="2">
         <v>11</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1037,7 +1042,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="2">
         <v>10</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1048,7 +1053,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="2">
         <v>10</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1059,7 +1064,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="2">
         <v>10</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1070,7 +1075,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="2">
         <v>10</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -1081,7 +1086,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="2">
         <v>10</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1092,7 +1097,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="2">
         <v>10</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1103,7 +1108,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="2">
         <v>10</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -1114,7 +1119,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="2">
         <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -1125,7 +1130,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="2">
         <v>10</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -1136,7 +1141,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="2">
         <v>10</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -1147,7 +1152,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="2">
         <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -1158,7 +1163,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="2">
         <v>9</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -1169,7 +1174,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="2">
         <v>9</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -1180,7 +1185,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="2">
         <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -1191,7 +1196,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="2">
         <v>9</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -1202,7 +1207,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="2">
         <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -1213,7 +1218,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="2">
         <v>9</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -1224,7 +1229,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="2">
         <v>9</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -1235,7 +1240,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="2">
         <v>8</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -1246,7 +1251,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="2">
         <v>8</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -1257,7 +1262,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="2">
         <v>8</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -1268,7 +1273,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="2">
         <v>8</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -1279,7 +1284,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="2">
         <v>7</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -1290,7 +1295,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="2">
         <v>7</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -1301,7 +1306,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="2">
         <v>7</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -1312,7 +1317,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="2">
         <v>7</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -1323,7 +1328,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="2">
         <v>7</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -1334,7 +1339,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="2">
         <v>7</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -1345,7 +1350,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="2">
         <v>7</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -1356,7 +1361,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="2">
         <v>6</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -1367,7 +1372,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="2">
         <v>6</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -1378,7 +1383,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="2">
         <v>6</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -1389,7 +1394,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="2">
         <v>6</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -1400,7 +1405,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="2">
         <v>6</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -1411,7 +1416,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="2">
         <v>6</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -1422,7 +1427,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="2">
         <v>6</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -1433,7 +1438,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="2">
         <v>6</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -1444,7 +1449,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="2">
         <v>6</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -1455,7 +1460,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="2">
         <v>5</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -1466,7 +1471,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="2">
         <v>5</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -1477,7 +1482,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="2">
         <v>5</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -1488,7 +1493,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="2">
         <v>5</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -1499,7 +1504,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="2">
         <v>5</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -1510,7 +1515,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="2">
         <v>5</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -1521,7 +1526,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="2">
         <v>5</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -1532,7 +1537,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="2">
         <v>5</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -1543,7 +1548,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="2">
         <v>5</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -1554,7 +1559,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="2">
         <v>4</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -1565,7 +1570,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="2">
         <v>4</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -1576,7 +1581,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="2">
         <v>4</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -1587,7 +1592,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="2">
         <v>4</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -1598,7 +1603,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="2">
         <v>4</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -1609,7 +1614,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="2">
         <v>4</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -1620,7 +1625,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="2">
         <v>4</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -1631,7 +1636,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="2">
         <v>4</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -1642,7 +1647,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="2">
         <v>3</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -1653,7 +1658,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="2">
         <v>3</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -1664,7 +1669,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="2">
         <v>3</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -1675,7 +1680,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="2">
         <v>3</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -1686,7 +1691,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="2">
         <v>3</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -1697,7 +1702,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="2">
         <v>3</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -1708,7 +1713,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="2">
         <v>3</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -1719,7 +1724,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="2">
         <v>2</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -1730,7 +1735,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="2">
         <v>2</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -1741,7 +1746,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="2">
         <v>2</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -1752,7 +1757,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="2">
         <v>2</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -1763,7 +1768,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="2">
         <v>1</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -1774,7 +1779,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="2">
         <v>1</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -1785,7 +1790,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="A110" s="2">
         <v>1</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -1796,7 +1801,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="A111" s="2">
         <v>1</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -1807,7 +1812,7 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="2">
         <v>1</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -1818,7 +1823,7 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="A113" s="2">
         <v>1</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -1829,7 +1834,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="2">
         <v>1</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -1840,7 +1845,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="A115" s="2">
         <v>1</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -1851,7 +1856,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="2">
         <v>11</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -1862,7 +1867,7 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="A117" s="2">
         <v>11</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -1873,7 +1878,7 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="2">
         <v>11</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -1884,7 +1889,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="2">
         <v>11</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -1895,7 +1900,7 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="2">
         <v>11</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -1906,7 +1911,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="2">
         <v>11</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -1917,7 +1922,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="2">
         <v>11</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -1928,7 +1933,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="2">
         <v>11</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -1939,7 +1944,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="2">
         <v>11</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -1950,7 +1955,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="2">
         <v>11</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -1961,7 +1966,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="2">
         <v>11</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -1972,7 +1977,7 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="2">
         <v>11</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -1983,7 +1988,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="2">
         <v>11</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -1994,7 +1999,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="2">
         <v>11</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -2005,7 +2010,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="2">
         <v>11</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -2016,7 +2021,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="A131" s="2">
         <v>11</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -2027,7 +2032,7 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="2">
         <v>11</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -2038,7 +2043,7 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="A133" s="2">
         <v>11</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -2049,7 +2054,7 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="A134" s="2">
         <v>11</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -2060,7 +2065,7 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="A135" s="2">
         <v>11</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -2071,7 +2076,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="A136" s="2">
         <v>11</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -2082,7 +2087,7 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="A137" s="2">
         <v>11</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -2093,7 +2098,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="A138" s="2">
         <v>11</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -2104,7 +2109,7 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="A139" s="2">
         <v>11</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -2115,7 +2120,7 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="A140" s="2">
         <v>11</v>
       </c>
       <c r="B140" s="1" t="s">
@@ -2126,7 +2131,7 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="A141" s="2">
         <v>11</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -2137,7 +2142,7 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="A142" s="2">
         <v>11</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -2148,7 +2153,7 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="A143" s="2">
         <v>11</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -2159,7 +2164,7 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="A144" s="2">
         <v>11</v>
       </c>
       <c r="B144" s="1" t="s">
@@ -2170,7 +2175,7 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="A145" s="2">
         <v>11</v>
       </c>
       <c r="B145" s="1" t="s">
@@ -2181,7 +2186,7 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="A146" s="2">
         <v>11</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -2192,7 +2197,7 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="A147" s="2">
         <v>11</v>
       </c>
       <c r="B147" s="1" t="s">
@@ -2203,7 +2208,7 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="A148" s="2">
         <v>11</v>
       </c>
       <c r="B148" s="1" t="s">
@@ -2214,7 +2219,7 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="A149" s="2">
         <v>11</v>
       </c>
       <c r="B149" s="1" t="s">
@@ -2225,7 +2230,7 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="A150" s="2">
         <v>11</v>
       </c>
       <c r="B150" s="1" t="s">
@@ -2236,7 +2241,7 @@
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="A151" s="2">
         <v>11</v>
       </c>
       <c r="B151" s="1" t="s">
@@ -2247,7 +2252,7 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="A152" s="2">
         <v>11</v>
       </c>
       <c r="B152" s="1" t="s">
@@ -2258,7 +2263,7 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="A153" s="2">
         <v>11</v>
       </c>
       <c r="B153" s="1" t="s">
@@ -2269,7 +2274,7 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="A154" s="2">
         <v>11</v>
       </c>
       <c r="B154" s="1" t="s">
@@ -2280,7 +2285,7 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="A155" s="2">
         <v>11</v>
       </c>
       <c r="B155" s="1" t="s">
@@ -2291,7 +2296,7 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="A156" s="2">
         <v>11</v>
       </c>
       <c r="B156" s="1" t="s">
@@ -2302,7 +2307,7 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="A157" s="2">
         <v>11</v>
       </c>
       <c r="B157" s="1" t="s">
@@ -2313,7 +2318,7 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="A158" s="2">
         <v>11</v>
       </c>
       <c r="B158" s="1" t="s">
@@ -2324,7 +2329,7 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="A159" s="2">
         <v>11</v>
       </c>
       <c r="B159" s="1" t="s">
@@ -2335,7 +2340,7 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="A160" s="2">
         <v>12</v>
       </c>
       <c r="B160" s="1" t="s">
@@ -2346,7 +2351,7 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="A161" s="2">
         <v>12</v>
       </c>
       <c r="B161" s="1" t="s">
@@ -2357,7 +2362,7 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="A162" s="2">
         <v>11</v>
       </c>
       <c r="B162" s="1" t="s">
@@ -2368,7 +2373,7 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="A163" s="2">
         <v>11</v>
       </c>
       <c r="B163" s="1" t="s">
@@ -2379,7 +2384,7 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="A164" s="2">
         <v>10</v>
       </c>
       <c r="B164" s="1" t="s">
@@ -2390,7 +2395,7 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="A165" s="2">
         <v>10</v>
       </c>
       <c r="B165" s="1" t="s">
@@ -2401,7 +2406,7 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="A166" s="2">
         <v>10</v>
       </c>
       <c r="B166" s="1" t="s">
@@ -2412,7 +2417,7 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="A167" s="2">
         <v>10</v>
       </c>
       <c r="B167" s="1" t="s">
@@ -2423,7 +2428,7 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="A168" s="2">
         <v>10</v>
       </c>
       <c r="B168" s="1" t="s">
@@ -2434,7 +2439,7 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="A169" s="2">
         <v>10</v>
       </c>
       <c r="B169" s="1" t="s">
@@ -2445,7 +2450,7 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="A170" s="2">
         <v>10</v>
       </c>
       <c r="B170" s="1" t="s">
@@ -2456,7 +2461,7 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="A171" s="2">
         <v>10</v>
       </c>
       <c r="B171" s="1" t="s">
@@ -2467,7 +2472,7 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="A172" s="2">
         <v>10</v>
       </c>
       <c r="B172" s="1" t="s">
@@ -2478,7 +2483,7 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="A173" s="2">
         <v>10</v>
       </c>
       <c r="B173" s="1" t="s">
@@ -2489,7 +2494,7 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="A174" s="2">
         <v>9</v>
       </c>
       <c r="B174" s="1" t="s">
@@ -2500,7 +2505,7 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="A175" s="2">
         <v>9</v>
       </c>
       <c r="B175" s="1" t="s">
@@ -2511,7 +2516,7 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="A176" s="2">
         <v>9</v>
       </c>
       <c r="B176" s="1" t="s">
@@ -2522,7 +2527,7 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177">
+      <c r="A177" s="2">
         <v>9</v>
       </c>
       <c r="B177" s="1" t="s">
@@ -2533,7 +2538,7 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178">
+      <c r="A178" s="2">
         <v>9</v>
       </c>
       <c r="B178" s="1" t="s">
@@ -2544,7 +2549,7 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="A179" s="2">
         <v>9</v>
       </c>
       <c r="B179" s="1" t="s">
@@ -2555,7 +2560,7 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180">
+      <c r="A180" s="2">
         <v>9</v>
       </c>
       <c r="B180" s="1" t="s">
@@ -2566,7 +2571,7 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="A181" s="2">
         <v>9</v>
       </c>
       <c r="B181" s="1" t="s">
@@ -2577,7 +2582,7 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="A182" s="2">
         <v>9</v>
       </c>
       <c r="B182" s="1" t="s">
@@ -2588,7 +2593,7 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="A183" s="2">
         <v>9</v>
       </c>
       <c r="B183" s="1" t="s">
@@ -2599,7 +2604,7 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="A184" s="2">
         <v>9</v>
       </c>
       <c r="B184" s="1" t="s">
@@ -2610,7 +2615,7 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="A185" s="2">
         <v>9</v>
       </c>
       <c r="B185" s="1" t="s">
@@ -2621,7 +2626,7 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186">
+      <c r="A186" s="2">
         <v>9</v>
       </c>
       <c r="B186" s="1" t="s">
@@ -2632,7 +2637,7 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="A187" s="2">
         <v>9</v>
       </c>
       <c r="B187" s="1" t="s">
@@ -2643,7 +2648,7 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188">
+      <c r="A188" s="2">
         <v>8</v>
       </c>
       <c r="B188" s="1" t="s">
@@ -2654,7 +2659,7 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189">
+      <c r="A189" s="2">
         <v>8</v>
       </c>
       <c r="B189" s="1" t="s">
@@ -2665,7 +2670,7 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190">
+      <c r="A190" s="2">
         <v>8</v>
       </c>
       <c r="B190" s="1" t="s">
@@ -2676,7 +2681,7 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191">
+      <c r="A191" s="2">
         <v>8</v>
       </c>
       <c r="B191" s="1" t="s">
@@ -2687,7 +2692,7 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192">
+      <c r="A192" s="2">
         <v>8</v>
       </c>
       <c r="B192" s="1" t="s">
@@ -2698,7 +2703,7 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193">
+      <c r="A193" s="2">
         <v>8</v>
       </c>
       <c r="B193" s="1" t="s">
@@ -2709,7 +2714,7 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194">
+      <c r="A194" s="2">
         <v>8</v>
       </c>
       <c r="B194" s="1" t="s">
@@ -2720,7 +2725,7 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195">
+      <c r="A195" s="2">
         <v>8</v>
       </c>
       <c r="B195" s="1" t="s">
@@ -2731,7 +2736,7 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196">
+      <c r="A196" s="2">
         <v>8</v>
       </c>
       <c r="B196" s="1" t="s">
@@ -2742,7 +2747,7 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="A197" s="2">
         <v>7</v>
       </c>
       <c r="B197" s="1" t="s">
@@ -2753,7 +2758,7 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198">
+      <c r="A198" s="2">
         <v>7</v>
       </c>
       <c r="B198" s="1" t="s">
@@ -2764,7 +2769,7 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199">
+      <c r="A199" s="2">
         <v>7</v>
       </c>
       <c r="B199" s="1" t="s">
@@ -2775,7 +2780,7 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200">
+      <c r="A200" s="2">
         <v>7</v>
       </c>
       <c r="B200" s="1" t="s">
@@ -2786,7 +2791,7 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201">
+      <c r="A201" s="2">
         <v>7</v>
       </c>
       <c r="B201" s="1" t="s">
@@ -2797,7 +2802,7 @@
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202">
+      <c r="A202" s="2">
         <v>7</v>
       </c>
       <c r="B202" s="1" t="s">
@@ -2808,7 +2813,7 @@
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203">
+      <c r="A203" s="2">
         <v>7</v>
       </c>
       <c r="B203" s="1" t="s">
@@ -2819,7 +2824,7 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204">
+      <c r="A204" s="2">
         <v>7</v>
       </c>
       <c r="B204" s="1" t="s">
@@ -2830,7 +2835,7 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205">
+      <c r="A205" s="2">
         <v>7</v>
       </c>
       <c r="B205" s="1" t="s">
@@ -2841,7 +2846,7 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206">
+      <c r="A206" s="2">
         <v>7</v>
       </c>
       <c r="B206" s="1" t="s">
@@ -2852,7 +2857,7 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207">
+      <c r="A207" s="2">
         <v>6</v>
       </c>
       <c r="B207" s="1" t="s">
@@ -2863,7 +2868,7 @@
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208">
+      <c r="A208" s="2">
         <v>6</v>
       </c>
       <c r="B208" s="1" t="s">
@@ -2874,7 +2879,7 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209">
+      <c r="A209" s="2">
         <v>6</v>
       </c>
       <c r="B209" s="1" t="s">
@@ -2885,7 +2890,7 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210">
+      <c r="A210" s="2">
         <v>6</v>
       </c>
       <c r="B210" s="1" t="s">
@@ -2896,7 +2901,7 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211">
+      <c r="A211" s="2">
         <v>6</v>
       </c>
       <c r="B211" s="1" t="s">
@@ -2907,7 +2912,7 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212">
+      <c r="A212" s="2">
         <v>6</v>
       </c>
       <c r="B212" s="1" t="s">
@@ -2918,7 +2923,7 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213">
+      <c r="A213" s="2">
         <v>6</v>
       </c>
       <c r="B213" s="1" t="s">
@@ -2929,7 +2934,7 @@
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214">
+      <c r="A214" s="2">
         <v>6</v>
       </c>
       <c r="B214" s="1" t="s">
@@ -2940,7 +2945,7 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215">
+      <c r="A215" s="2">
         <v>5</v>
       </c>
       <c r="B215" s="1" t="s">
@@ -2951,7 +2956,7 @@
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216">
+      <c r="A216" s="2">
         <v>5</v>
       </c>
       <c r="B216" s="1" t="s">
@@ -2962,7 +2967,7 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217">
+      <c r="A217" s="2">
         <v>5</v>
       </c>
       <c r="B217" s="1" t="s">
@@ -2973,7 +2978,7 @@
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218">
+      <c r="A218" s="2">
         <v>5</v>
       </c>
       <c r="B218" s="1" t="s">
@@ -2984,7 +2989,7 @@
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219">
+      <c r="A219" s="2">
         <v>5</v>
       </c>
       <c r="B219" s="1" t="s">
@@ -2995,7 +3000,7 @@
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220">
+      <c r="A220" s="2">
         <v>5</v>
       </c>
       <c r="B220" s="1" t="s">
@@ -3006,7 +3011,7 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221">
+      <c r="A221" s="2">
         <v>5</v>
       </c>
       <c r="B221" s="1" t="s">
@@ -3017,7 +3022,7 @@
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222">
+      <c r="A222" s="2">
         <v>5</v>
       </c>
       <c r="B222" s="1" t="s">
@@ -3028,7 +3033,7 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223">
+      <c r="A223" s="2">
         <v>5</v>
       </c>
       <c r="B223" s="1" t="s">
@@ -3039,7 +3044,7 @@
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224">
+      <c r="A224" s="2">
         <v>5</v>
       </c>
       <c r="B224" s="1" t="s">
@@ -3050,7 +3055,7 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225">
+      <c r="A225" s="2">
         <v>5</v>
       </c>
       <c r="B225" s="1" t="s">
@@ -3061,7 +3066,7 @@
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226">
+      <c r="A226" s="2">
         <v>5</v>
       </c>
       <c r="B226" s="1" t="s">
@@ -3072,7 +3077,7 @@
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227">
+      <c r="A227" s="2">
         <v>5</v>
       </c>
       <c r="B227" s="1" t="s">
@@ -3083,7 +3088,7 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228">
+      <c r="A228" s="2">
         <v>4</v>
       </c>
       <c r="B228" s="1" t="s">
@@ -3094,7 +3099,7 @@
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229">
+      <c r="A229" s="2">
         <v>4</v>
       </c>
       <c r="B229" s="1" t="s">
@@ -3105,7 +3110,7 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230">
+      <c r="A230" s="2">
         <v>4</v>
       </c>
       <c r="B230" s="1" t="s">
@@ -3116,7 +3121,7 @@
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231">
+      <c r="A231" s="2">
         <v>4</v>
       </c>
       <c r="B231" s="1" t="s">
@@ -3127,7 +3132,7 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232">
+      <c r="A232" s="2">
         <v>4</v>
       </c>
       <c r="B232" s="1" t="s">
@@ -3138,7 +3143,7 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233">
+      <c r="A233" s="2">
         <v>4</v>
       </c>
       <c r="B233" s="1" t="s">
@@ -3149,7 +3154,7 @@
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234">
+      <c r="A234" s="2">
         <v>4</v>
       </c>
       <c r="B234" s="1" t="s">
@@ -3160,7 +3165,7 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235">
+      <c r="A235" s="2">
         <v>4</v>
       </c>
       <c r="B235" s="1" t="s">
@@ -3171,7 +3176,7 @@
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236">
+      <c r="A236" s="2">
         <v>4</v>
       </c>
       <c r="B236" s="1" t="s">
@@ -3182,7 +3187,7 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237">
+      <c r="A237" s="2">
         <v>4</v>
       </c>
       <c r="B237" s="1" t="s">
@@ -3193,7 +3198,7 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238">
+      <c r="A238" s="2">
         <v>4</v>
       </c>
       <c r="B238" s="1" t="s">
@@ -3204,7 +3209,7 @@
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239">
+      <c r="A239" s="2">
         <v>4</v>
       </c>
       <c r="B239" s="1" t="s">
@@ -3215,7 +3220,7 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240">
+      <c r="A240" s="2">
         <v>4</v>
       </c>
       <c r="B240" s="1" t="s">
@@ -3226,7 +3231,7 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241">
+      <c r="A241" s="2">
         <v>4</v>
       </c>
       <c r="B241" s="1" t="s">
@@ -3237,7 +3242,7 @@
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242">
+      <c r="A242" s="2">
         <v>3</v>
       </c>
       <c r="B242" s="1" t="s">
@@ -3248,7 +3253,7 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243">
+      <c r="A243" s="2">
         <v>3</v>
       </c>
       <c r="B243" s="1" t="s">
@@ -3259,7 +3264,7 @@
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244">
+      <c r="A244" s="2">
         <v>3</v>
       </c>
       <c r="B244" s="1" t="s">
@@ -3270,7 +3275,7 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245">
+      <c r="A245" s="2">
         <v>3</v>
       </c>
       <c r="B245" s="1" t="s">
@@ -3281,7 +3286,7 @@
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246">
+      <c r="A246" s="2">
         <v>3</v>
       </c>
       <c r="B246" s="1" t="s">
@@ -3292,7 +3297,7 @@
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247">
+      <c r="A247" s="2">
         <v>3</v>
       </c>
       <c r="B247" s="1" t="s">
@@ -3303,7 +3308,7 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248">
+      <c r="A248" s="2">
         <v>2</v>
       </c>
       <c r="B248" s="1" t="s">
@@ -3314,7 +3319,7 @@
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249">
+      <c r="A249" s="2">
         <v>2</v>
       </c>
       <c r="B249" s="1" t="s">
@@ -3325,7 +3330,7 @@
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250">
+      <c r="A250" s="2">
         <v>2</v>
       </c>
       <c r="B250" s="1" t="s">
@@ -3336,7 +3341,7 @@
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251">
+      <c r="A251" s="2">
         <v>2</v>
       </c>
       <c r="B251" s="1" t="s">
@@ -3347,7 +3352,7 @@
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252">
+      <c r="A252" s="2">
         <v>2</v>
       </c>
       <c r="B252" s="1" t="s">
@@ -3358,7 +3363,7 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253">
+      <c r="A253" s="2">
         <v>2</v>
       </c>
       <c r="B253" s="1" t="s">
@@ -3369,7 +3374,7 @@
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254">
+      <c r="A254" s="2">
         <v>1</v>
       </c>
       <c r="B254" s="1" t="s">
@@ -3380,7 +3385,7 @@
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255">
+      <c r="A255" s="2">
         <v>1</v>
       </c>
       <c r="B255" s="1" t="s">
@@ -3391,7 +3396,7 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256">
+      <c r="A256" s="2">
         <v>1</v>
       </c>
       <c r="B256" s="1" t="s">
@@ -3402,7 +3407,7 @@
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257">
+      <c r="A257" s="2">
         <v>1</v>
       </c>
       <c r="B257" s="1" t="s">
@@ -3413,7 +3418,7 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258">
+      <c r="A258" s="2">
         <v>1</v>
       </c>
       <c r="B258" s="1" t="s">
@@ -3424,7 +3429,7 @@
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259">
+      <c r="A259" s="2">
         <v>1</v>
       </c>
       <c r="B259" s="1" t="s">
@@ -3435,7 +3440,7 @@
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260">
+      <c r="A260" s="2">
         <v>1</v>
       </c>
       <c r="B260" s="1" t="s">
@@ -3446,7 +3451,7 @@
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261">
+      <c r="A261" s="2">
         <v>1</v>
       </c>
       <c r="B261" s="1" t="s">
@@ -3457,7 +3462,7 @@
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262">
+      <c r="A262" s="2">
         <v>10</v>
       </c>
       <c r="B262" s="1" t="s">
@@ -3468,7 +3473,7 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263">
+      <c r="A263" s="2">
         <v>10</v>
       </c>
       <c r="B263" s="1" t="s">
@@ -3479,7 +3484,7 @@
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264">
+      <c r="A264" s="2">
         <v>10</v>
       </c>
       <c r="B264" s="1" t="s">
@@ -3490,7 +3495,7 @@
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265">
+      <c r="A265" s="2">
         <v>10</v>
       </c>
       <c r="B265" s="1" t="s">
@@ -3501,7 +3506,7 @@
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266">
+      <c r="A266" s="2">
         <v>10</v>
       </c>
       <c r="B266" s="1" t="s">
@@ -3512,7 +3517,7 @@
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267">
+      <c r="A267" s="2">
         <v>10</v>
       </c>
       <c r="B267" s="1" t="s">
@@ -3523,7 +3528,7 @@
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268">
+      <c r="A268" s="2">
         <v>10</v>
       </c>
       <c r="B268" s="1" t="s">
@@ -3534,7 +3539,7 @@
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269">
+      <c r="A269" s="2">
         <v>10</v>
       </c>
       <c r="B269" s="1" t="s">
@@ -3545,7 +3550,7 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270">
+      <c r="A270" s="2">
         <v>10</v>
       </c>
       <c r="B270" s="1" t="s">
@@ -3556,7 +3561,7 @@
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271">
+      <c r="A271" s="2">
         <v>10</v>
       </c>
       <c r="B271" s="1" t="s">
@@ -3567,7 +3572,7 @@
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272">
+      <c r="A272" s="2">
         <v>10</v>
       </c>
       <c r="B272" s="1" t="s">
@@ -3578,7 +3583,7 @@
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273">
+      <c r="A273" s="2">
         <v>10</v>
       </c>
       <c r="B273" s="1" t="s">
@@ -3589,7 +3594,7 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274">
+      <c r="A274" s="2">
         <v>10</v>
       </c>
       <c r="B274" s="1" t="s">
@@ -3600,7 +3605,7 @@
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275">
+      <c r="A275" s="2">
         <v>10</v>
       </c>
       <c r="B275" s="1" t="s">
@@ -3611,7 +3616,7 @@
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276">
+      <c r="A276" s="2">
         <v>10</v>
       </c>
       <c r="B276" s="1" t="s">
@@ -3622,7 +3627,7 @@
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277">
+      <c r="A277" s="2">
         <v>10</v>
       </c>
       <c r="B277" s="1" t="s">
@@ -3633,7 +3638,7 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278">
+      <c r="A278" s="2">
         <v>10</v>
       </c>
       <c r="B278" s="1" t="s">
@@ -3644,7 +3649,7 @@
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279">
+      <c r="A279" s="2">
         <v>10</v>
       </c>
       <c r="B279" s="1" t="s">
@@ -3655,7 +3660,7 @@
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280">
+      <c r="A280" s="2">
         <v>10</v>
       </c>
       <c r="B280" s="1" t="s">
@@ -3666,7 +3671,7 @@
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281">
+      <c r="A281" s="2">
         <v>10</v>
       </c>
       <c r="B281" s="1" t="s">
@@ -3677,7 +3682,7 @@
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282">
+      <c r="A282" s="2">
         <v>10</v>
       </c>
       <c r="B282" s="1" t="s">
@@ -3688,7 +3693,7 @@
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283">
+      <c r="A283" s="2">
         <v>10</v>
       </c>
       <c r="B283" s="1" t="s">
@@ -3699,7 +3704,7 @@
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284">
+      <c r="A284" s="2">
         <v>10</v>
       </c>
       <c r="B284" s="1" t="s">
@@ -3710,7 +3715,7 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285">
+      <c r="A285" s="2">
         <v>10</v>
       </c>
       <c r="B285" s="1" t="s">
@@ -3721,7 +3726,7 @@
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286">
+      <c r="A286" s="2">
         <v>10</v>
       </c>
       <c r="B286" s="1" t="s">
@@ -3732,7 +3737,7 @@
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287">
+      <c r="A287" s="2">
         <v>10</v>
       </c>
       <c r="B287" s="1" t="s">
@@ -3743,7 +3748,7 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288">
+      <c r="A288" s="2">
         <v>10</v>
       </c>
       <c r="B288" s="1" t="s">
@@ -3754,7 +3759,7 @@
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289">
+      <c r="A289" s="2">
         <v>10</v>
       </c>
       <c r="B289" s="1" t="s">
@@ -3765,7 +3770,7 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290">
+      <c r="A290" s="2">
         <v>10</v>
       </c>
       <c r="B290" s="1" t="s">
@@ -3776,7 +3781,7 @@
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291">
+      <c r="A291" s="2">
         <v>12</v>
       </c>
       <c r="B291" s="1" t="s">
@@ -3787,7 +3792,7 @@
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292">
+      <c r="A292" s="2">
         <v>11</v>
       </c>
       <c r="B292" s="1" t="s">
@@ -3798,7 +3803,7 @@
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293">
+      <c r="A293" s="2">
         <v>10</v>
       </c>
       <c r="B293" s="1" t="s">
@@ -3809,7 +3814,7 @@
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294">
+      <c r="A294" s="2">
         <v>9</v>
       </c>
       <c r="B294" s="1" t="s">
@@ -3820,7 +3825,7 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295">
+      <c r="A295" s="2">
         <v>9</v>
       </c>
       <c r="B295" s="1" t="s">
@@ -3831,7 +3836,7 @@
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296">
+      <c r="A296" s="2">
         <v>9</v>
       </c>
       <c r="B296" s="1" t="s">
@@ -3842,7 +3847,7 @@
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297">
+      <c r="A297" s="2">
         <v>9</v>
       </c>
       <c r="B297" s="1" t="s">
@@ -3853,7 +3858,7 @@
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298">
+      <c r="A298" s="2">
         <v>9</v>
       </c>
       <c r="B298" s="1" t="s">
@@ -3864,7 +3869,7 @@
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299">
+      <c r="A299" s="2">
         <v>8</v>
       </c>
       <c r="B299" s="1" t="s">
@@ -3875,7 +3880,7 @@
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300">
+      <c r="A300" s="2">
         <v>8</v>
       </c>
       <c r="B300" s="1" t="s">
@@ -3886,7 +3891,7 @@
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301">
+      <c r="A301" s="2">
         <v>8</v>
       </c>
       <c r="B301" s="1" t="s">
@@ -3897,7 +3902,7 @@
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302">
+      <c r="A302" s="2">
         <v>8</v>
       </c>
       <c r="B302" s="1" t="s">
@@ -3908,7 +3913,7 @@
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303">
+      <c r="A303" s="2">
         <v>8</v>
       </c>
       <c r="B303" s="1" t="s">
@@ -3919,7 +3924,7 @@
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304">
+      <c r="A304" s="2">
         <v>8</v>
       </c>
       <c r="B304" s="1" t="s">
@@ -3930,7 +3935,7 @@
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305">
+      <c r="A305" s="2">
         <v>8</v>
       </c>
       <c r="B305" s="1" t="s">
@@ -3941,7 +3946,7 @@
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306">
+      <c r="A306" s="2">
         <v>8</v>
       </c>
       <c r="B306" s="1" t="s">
@@ -3952,7 +3957,7 @@
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307">
+      <c r="A307" s="2">
         <v>8</v>
       </c>
       <c r="B307" s="1" t="s">
@@ -3963,7 +3968,7 @@
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308">
+      <c r="A308" s="2">
         <v>8</v>
       </c>
       <c r="B308" s="1" t="s">
@@ -3974,7 +3979,7 @@
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309">
+      <c r="A309" s="2">
         <v>7</v>
       </c>
       <c r="B309" s="1" t="s">
@@ -3985,7 +3990,7 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310">
+      <c r="A310" s="2">
         <v>7</v>
       </c>
       <c r="B310" s="1" t="s">
@@ -3996,7 +4001,7 @@
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311">
+      <c r="A311" s="2">
         <v>7</v>
       </c>
       <c r="B311" s="1" t="s">
@@ -4007,7 +4012,7 @@
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312">
+      <c r="A312" s="2">
         <v>7</v>
       </c>
       <c r="B312" s="1" t="s">
@@ -4018,7 +4023,7 @@
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313">
+      <c r="A313" s="2">
         <v>7</v>
       </c>
       <c r="B313" s="1" t="s">
@@ -4029,7 +4034,7 @@
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314">
+      <c r="A314" s="2">
         <v>7</v>
       </c>
       <c r="B314" s="1" t="s">
@@ -4040,7 +4045,7 @@
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315">
+      <c r="A315" s="2">
         <v>7</v>
       </c>
       <c r="B315" s="1" t="s">
@@ -4051,7 +4056,7 @@
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316">
+      <c r="A316" s="2">
         <v>7</v>
       </c>
       <c r="B316" s="1" t="s">
@@ -4062,7 +4067,7 @@
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317">
+      <c r="A317" s="2">
         <v>6</v>
       </c>
       <c r="B317" s="1" t="s">
@@ -4073,7 +4078,7 @@
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318">
+      <c r="A318" s="2">
         <v>6</v>
       </c>
       <c r="B318" s="1" t="s">
@@ -4084,7 +4089,7 @@
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319">
+      <c r="A319" s="2">
         <v>6</v>
       </c>
       <c r="B319" s="1" t="s">
@@ -4095,7 +4100,7 @@
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320">
+      <c r="A320" s="2">
         <v>6</v>
       </c>
       <c r="B320" s="1" t="s">
@@ -4106,7 +4111,7 @@
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321">
+      <c r="A321" s="2">
         <v>6</v>
       </c>
       <c r="B321" s="1" t="s">
@@ -4117,7 +4122,7 @@
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322">
+      <c r="A322" s="2">
         <v>6</v>
       </c>
       <c r="B322" s="1" t="s">
@@ -4128,7 +4133,7 @@
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323">
+      <c r="A323" s="2">
         <v>6</v>
       </c>
       <c r="B323" s="1" t="s">
@@ -4139,7 +4144,7 @@
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324">
+      <c r="A324" s="2">
         <v>6</v>
       </c>
       <c r="B324" s="1" t="s">
@@ -4150,7 +4155,7 @@
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325">
+      <c r="A325" s="2">
         <v>5</v>
       </c>
       <c r="B325" s="1" t="s">
@@ -4161,7 +4166,7 @@
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326">
+      <c r="A326" s="2">
         <v>5</v>
       </c>
       <c r="B326" s="1" t="s">
@@ -4172,7 +4177,7 @@
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327">
+      <c r="A327" s="2">
         <v>5</v>
       </c>
       <c r="B327" s="1" t="s">
@@ -4183,7 +4188,7 @@
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328">
+      <c r="A328" s="2">
         <v>5</v>
       </c>
       <c r="B328" s="1" t="s">
@@ -4194,7 +4199,7 @@
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329">
+      <c r="A329" s="2">
         <v>4</v>
       </c>
       <c r="B329" s="1" t="s">
@@ -4205,7 +4210,7 @@
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330">
+      <c r="A330" s="2">
         <v>4</v>
       </c>
       <c r="B330" s="1" t="s">
@@ -4216,7 +4221,7 @@
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331">
+      <c r="A331" s="2">
         <v>4</v>
       </c>
       <c r="B331" s="1" t="s">
@@ -4227,7 +4232,7 @@
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332">
+      <c r="A332" s="2">
         <v>4</v>
       </c>
       <c r="B332" s="1" t="s">
@@ -4238,7 +4243,7 @@
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333">
+      <c r="A333" s="2">
         <v>4</v>
       </c>
       <c r="B333" s="1" t="s">
@@ -4249,7 +4254,7 @@
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334">
+      <c r="A334" s="2">
         <v>4</v>
       </c>
       <c r="B334" s="1" t="s">
@@ -4260,7 +4265,7 @@
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335">
+      <c r="A335" s="2">
         <v>3</v>
       </c>
       <c r="B335" s="1" t="s">
@@ -4271,7 +4276,7 @@
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336">
+      <c r="A336" s="2">
         <v>3</v>
       </c>
       <c r="B336" s="1" t="s">
@@ -4282,7 +4287,7 @@
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337">
+      <c r="A337" s="2">
         <v>3</v>
       </c>
       <c r="B337" s="1" t="s">
@@ -4293,7 +4298,7 @@
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338">
+      <c r="A338" s="2">
         <v>3</v>
       </c>
       <c r="B338" s="1" t="s">
@@ -4304,7 +4309,7 @@
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339">
+      <c r="A339" s="2">
         <v>3</v>
       </c>
       <c r="B339" s="1" t="s">
@@ -4315,7 +4320,7 @@
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340">
+      <c r="A340" s="2">
         <v>2</v>
       </c>
       <c r="B340" s="1" t="s">
@@ -4326,7 +4331,7 @@
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341">
+      <c r="A341" s="2">
         <v>2</v>
       </c>
       <c r="B341" s="1" t="s">
@@ -4337,7 +4342,7 @@
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342">
+      <c r="A342" s="2">
         <v>2</v>
       </c>
       <c r="B342" s="1" t="s">
@@ -4348,7 +4353,7 @@
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343">
+      <c r="A343" s="2">
         <v>2</v>
       </c>
       <c r="B343" s="1" t="s">
@@ -4359,7 +4364,7 @@
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344">
+      <c r="A344" s="2">
         <v>2</v>
       </c>
       <c r="B344" s="1" t="s">
@@ -4370,7 +4375,7 @@
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345">
+      <c r="A345" s="2">
         <v>2</v>
       </c>
       <c r="B345" s="1" t="s">
@@ -4381,7 +4386,7 @@
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346">
+      <c r="A346" s="2">
         <v>2</v>
       </c>
       <c r="B346" s="1" t="s">
@@ -4392,7 +4397,7 @@
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347">
+      <c r="A347" s="2">
         <v>2</v>
       </c>
       <c r="B347" s="1" t="s">
@@ -4403,7 +4408,7 @@
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348">
+      <c r="A348" s="2">
         <v>2</v>
       </c>
       <c r="B348" s="1" t="s">
@@ -4414,7 +4419,7 @@
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349">
+      <c r="A349" s="2">
         <v>2</v>
       </c>
       <c r="B349" s="1" t="s">
@@ -4425,7 +4430,7 @@
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A350">
+      <c r="A350" s="2">
         <v>2</v>
       </c>
       <c r="B350" s="1" t="s">
@@ -4436,7 +4441,7 @@
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351">
+      <c r="A351" s="2">
         <v>2</v>
       </c>
       <c r="B351" s="1" t="s">
@@ -4447,7 +4452,7 @@
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352">
+      <c r="A352" s="2">
         <v>1</v>
       </c>
       <c r="B352" s="1" t="s">
@@ -4458,7 +4463,7 @@
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353">
+      <c r="A353" s="2">
         <v>1</v>
       </c>
       <c r="B353" s="1" t="s">
@@ -4469,7 +4474,7 @@
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354">
+      <c r="A354" s="2">
         <v>1</v>
       </c>
       <c r="B354" s="1" t="s">
@@ -4480,7 +4485,7 @@
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355">
+      <c r="A355" s="2">
         <v>1</v>
       </c>
       <c r="B355" s="1" t="s">
@@ -4491,7 +4496,7 @@
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356">
+      <c r="A356" s="2">
         <v>1</v>
       </c>
       <c r="B356" s="1" t="s">
@@ -4502,7 +4507,7 @@
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A357">
+      <c r="A357" s="2">
         <v>1</v>
       </c>
       <c r="B357" s="1" t="s">
@@ -4513,7 +4518,7 @@
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358">
+      <c r="A358" s="2">
         <v>1</v>
       </c>
       <c r="B358" s="1" t="s">
@@ -4524,7 +4529,7 @@
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359">
+      <c r="A359" s="2">
         <v>1</v>
       </c>
       <c r="B359" s="1" t="s">
@@ -4535,7 +4540,7 @@
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360">
+      <c r="A360" s="2">
         <v>1</v>
       </c>
       <c r="B360" s="1" t="s">
@@ -4546,7 +4551,7 @@
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361">
+      <c r="A361" s="2">
         <v>1</v>
       </c>
       <c r="B361" s="1" t="s">
@@ -4557,7 +4562,7 @@
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A362">
+      <c r="A362" s="2">
         <v>1</v>
       </c>
       <c r="B362" s="1" t="s">
@@ -4568,7 +4573,7 @@
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363">
+      <c r="A363" s="2">
         <v>1</v>
       </c>
       <c r="B363" s="1" t="s">
@@ -4579,7 +4584,7 @@
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364">
+      <c r="A364" s="2">
         <v>1</v>
       </c>
       <c r="B364" s="1" t="s">
@@ -4590,7 +4595,7 @@
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365">
+      <c r="A365" s="2">
         <v>1</v>
       </c>
       <c r="B365" s="1" t="s">
@@ -4601,7 +4606,7 @@
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A366">
+      <c r="A366" s="2">
         <v>1</v>
       </c>
       <c r="B366" s="1" t="s">
@@ -4612,7 +4617,7 @@
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A367">
+      <c r="A367" s="2">
         <v>1</v>
       </c>
       <c r="B367" s="1" t="s">
@@ -4623,7 +4628,7 @@
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A368">
+      <c r="A368" s="2">
         <v>1</v>
       </c>
       <c r="B368" s="1" t="s">
@@ -4634,7 +4639,7 @@
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369">
+      <c r="A369" s="2">
         <v>1</v>
       </c>
       <c r="B369" s="1" t="s">
@@ -4645,7 +4650,7 @@
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370">
+      <c r="A370" s="2">
         <v>9</v>
       </c>
       <c r="B370" s="1" t="s">
@@ -4656,7 +4661,7 @@
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371">
+      <c r="A371" s="2">
         <v>9</v>
       </c>
       <c r="B371" s="1" t="s">
@@ -4667,7 +4672,7 @@
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372">
+      <c r="A372" s="2">
         <v>9</v>
       </c>
       <c r="B372" s="1" t="s">
@@ -4678,7 +4683,7 @@
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373">
+      <c r="A373" s="2">
         <v>9</v>
       </c>
       <c r="B373" s="1" t="s">
@@ -4689,7 +4694,7 @@
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374">
+      <c r="A374" s="2">
         <v>9</v>
       </c>
       <c r="B374" s="1" t="s">
@@ -4700,7 +4705,7 @@
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375">
+      <c r="A375" s="2">
         <v>9</v>
       </c>
       <c r="B375" s="1" t="s">
@@ -4711,7 +4716,7 @@
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376">
+      <c r="A376" s="2">
         <v>9</v>
       </c>
       <c r="B376" s="1" t="s">
@@ -4722,7 +4727,7 @@
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377">
+      <c r="A377" s="2">
         <v>9</v>
       </c>
       <c r="B377" s="1" t="s">
@@ -4733,7 +4738,7 @@
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378">
+      <c r="A378" s="2">
         <v>9</v>
       </c>
       <c r="B378" s="1" t="s">
@@ -4744,7 +4749,7 @@
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379">
+      <c r="A379" s="2">
         <v>9</v>
       </c>
       <c r="B379" s="1" t="s">
@@ -4755,7 +4760,7 @@
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380">
+      <c r="A380" s="2">
         <v>9</v>
       </c>
       <c r="B380" s="1" t="s">
@@ -4766,7 +4771,7 @@
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381">
+      <c r="A381" s="2">
         <v>9</v>
       </c>
       <c r="B381" s="1" t="s">
@@ -4777,7 +4782,7 @@
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382">
+      <c r="A382" s="2">
         <v>9</v>
       </c>
       <c r="B382" s="1" t="s">
@@ -4788,7 +4793,7 @@
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A383">
+      <c r="A383" s="2">
         <v>9</v>
       </c>
       <c r="B383" s="1" t="s">
@@ -4799,7 +4804,7 @@
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A384">
+      <c r="A384" s="2">
         <v>9</v>
       </c>
       <c r="B384" s="1" t="s">
@@ -4810,7 +4815,7 @@
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385">
+      <c r="A385" s="2">
         <v>9</v>
       </c>
       <c r="B385" s="1" t="s">
@@ -4821,7 +4826,7 @@
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386">
+      <c r="A386" s="2">
         <v>9</v>
       </c>
       <c r="B386" s="1" t="s">
@@ -4832,7 +4837,7 @@
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387">
+      <c r="A387" s="2">
         <v>9</v>
       </c>
       <c r="B387" s="1" t="s">
@@ -4843,7 +4848,7 @@
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388">
+      <c r="A388" s="2">
         <v>9</v>
       </c>
       <c r="B388" s="1" t="s">
@@ -4854,7 +4859,7 @@
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A389">
+      <c r="A389" s="2">
         <v>9</v>
       </c>
       <c r="B389" s="1" t="s">
@@ -4865,7 +4870,7 @@
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390">
+      <c r="A390" s="2">
         <v>9</v>
       </c>
       <c r="B390" s="1" t="s">
@@ -4876,7 +4881,7 @@
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391">
+      <c r="A391" s="2">
         <v>9</v>
       </c>
       <c r="B391" s="1" t="s">
@@ -4887,7 +4892,7 @@
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392">
+      <c r="A392" s="2">
         <v>9</v>
       </c>
       <c r="B392" s="1" t="s">
@@ -4898,7 +4903,7 @@
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393">
+      <c r="A393" s="2">
         <v>12</v>
       </c>
       <c r="B393" s="1" t="s">
@@ -4909,7 +4914,7 @@
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394">
+      <c r="A394" s="2">
         <v>10</v>
       </c>
       <c r="B394" s="1" t="s">
@@ -4920,7 +4925,7 @@
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395">
+      <c r="A395" s="2">
         <v>9</v>
       </c>
       <c r="B395" s="1" t="s">
@@ -4931,7 +4936,7 @@
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396">
+      <c r="A396" s="2">
         <v>8</v>
       </c>
       <c r="B396" s="1" t="s">
@@ -4942,7 +4947,7 @@
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397">
+      <c r="A397" s="2">
         <v>8</v>
       </c>
       <c r="B397" s="1" t="s">
@@ -4953,7 +4958,7 @@
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398">
+      <c r="A398" s="2">
         <v>8</v>
       </c>
       <c r="B398" s="1" t="s">
@@ -4964,7 +4969,7 @@
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399">
+      <c r="A399" s="2">
         <v>8</v>
       </c>
       <c r="B399" s="1" t="s">
@@ -4975,7 +4980,7 @@
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A400">
+      <c r="A400" s="2">
         <v>7</v>
       </c>
       <c r="B400" s="1" t="s">
@@ -4986,7 +4991,7 @@
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A401">
+      <c r="A401" s="2">
         <v>7</v>
       </c>
       <c r="B401" s="1" t="s">
@@ -4997,7 +5002,7 @@
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402">
+      <c r="A402" s="2">
         <v>7</v>
       </c>
       <c r="B402" s="1" t="s">
@@ -5008,7 +5013,7 @@
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A403">
+      <c r="A403" s="2">
         <v>7</v>
       </c>
       <c r="B403" s="1" t="s">
@@ -5019,7 +5024,7 @@
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404">
+      <c r="A404" s="2">
         <v>6</v>
       </c>
       <c r="B404" s="1" t="s">
@@ -5030,7 +5035,7 @@
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A405">
+      <c r="A405" s="2">
         <v>6</v>
       </c>
       <c r="B405" s="1" t="s">
@@ -5041,7 +5046,7 @@
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A406">
+      <c r="A406" s="2">
         <v>6</v>
       </c>
       <c r="B406" s="1" t="s">
@@ -5052,7 +5057,7 @@
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407">
+      <c r="A407" s="2">
         <v>6</v>
       </c>
       <c r="B407" s="1" t="s">
@@ -5063,7 +5068,7 @@
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408">
+      <c r="A408" s="2">
         <v>6</v>
       </c>
       <c r="B408" s="1" t="s">
@@ -5074,7 +5079,7 @@
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409">
+      <c r="A409" s="2">
         <v>6</v>
       </c>
       <c r="B409" s="1" t="s">
@@ -5085,7 +5090,7 @@
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410">
+      <c r="A410" s="2">
         <v>6</v>
       </c>
       <c r="B410" s="1" t="s">
@@ -5096,7 +5101,7 @@
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411">
+      <c r="A411" s="2">
         <v>5</v>
       </c>
       <c r="B411" s="1" t="s">
@@ -5107,7 +5112,7 @@
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412">
+      <c r="A412" s="2">
         <v>5</v>
       </c>
       <c r="B412" s="1" t="s">
@@ -5118,7 +5123,7 @@
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413">
+      <c r="A413" s="2">
         <v>5</v>
       </c>
       <c r="B413" s="1" t="s">
@@ -5129,7 +5134,7 @@
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414">
+      <c r="A414" s="2">
         <v>5</v>
       </c>
       <c r="B414" s="1" t="s">
@@ -5140,7 +5145,7 @@
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415">
+      <c r="A415" s="2">
         <v>5</v>
       </c>
       <c r="B415" s="1" t="s">
@@ -5151,7 +5156,7 @@
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A416">
+      <c r="A416" s="2">
         <v>4</v>
       </c>
       <c r="B416" s="1" t="s">
@@ -5162,7 +5167,7 @@
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A417">
+      <c r="A417" s="2">
         <v>4</v>
       </c>
       <c r="B417" s="1" t="s">
@@ -5173,7 +5178,7 @@
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418">
+      <c r="A418" s="2">
         <v>4</v>
       </c>
       <c r="B418" s="1" t="s">
@@ -5184,7 +5189,7 @@
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419">
+      <c r="A419" s="2">
         <v>4</v>
       </c>
       <c r="B419" s="1" t="s">
@@ -5195,7 +5200,7 @@
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420">
+      <c r="A420" s="2">
         <v>4</v>
       </c>
       <c r="B420" s="1" t="s">
@@ -5206,7 +5211,7 @@
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A421">
+      <c r="A421" s="2">
         <v>4</v>
       </c>
       <c r="B421" s="1" t="s">
@@ -5217,7 +5222,7 @@
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A422">
+      <c r="A422" s="2">
         <v>4</v>
       </c>
       <c r="B422" s="1" t="s">
@@ -5228,7 +5233,7 @@
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A423">
+      <c r="A423" s="2">
         <v>3</v>
       </c>
       <c r="B423" s="1" t="s">
@@ -5239,7 +5244,7 @@
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424">
+      <c r="A424" s="2">
         <v>3</v>
       </c>
       <c r="B424" s="1" t="s">
@@ -5250,7 +5255,7 @@
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A425">
+      <c r="A425" s="2">
         <v>3</v>
       </c>
       <c r="B425" s="1" t="s">
@@ -5261,7 +5266,7 @@
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426">
+      <c r="A426" s="2">
         <v>3</v>
       </c>
       <c r="B426" s="1" t="s">
@@ -5272,7 +5277,7 @@
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A427">
+      <c r="A427" s="2">
         <v>3</v>
       </c>
       <c r="B427" s="1" t="s">
@@ -5283,7 +5288,7 @@
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A428">
+      <c r="A428" s="2">
         <v>3</v>
       </c>
       <c r="B428" s="1" t="s">
@@ -5294,7 +5299,7 @@
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429">
+      <c r="A429" s="2">
         <v>3</v>
       </c>
       <c r="B429" s="1" t="s">
@@ -5305,7 +5310,7 @@
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430">
+      <c r="A430" s="2">
         <v>3</v>
       </c>
       <c r="B430" s="1" t="s">
@@ -5316,7 +5321,7 @@
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431">
+      <c r="A431" s="2">
         <v>3</v>
       </c>
       <c r="B431" s="1" t="s">
@@ -5327,7 +5332,7 @@
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A432">
+      <c r="A432" s="2">
         <v>3</v>
       </c>
       <c r="B432" s="1" t="s">
@@ -5338,7 +5343,7 @@
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A433">
+      <c r="A433" s="2">
         <v>3</v>
       </c>
       <c r="B433" s="1" t="s">
@@ -5349,7 +5354,7 @@
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A434">
+      <c r="A434" s="2">
         <v>3</v>
       </c>
       <c r="B434" s="1" t="s">
@@ -5360,7 +5365,7 @@
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A435">
+      <c r="A435" s="2">
         <v>2</v>
       </c>
       <c r="B435" s="1" t="s">
@@ -5371,7 +5376,7 @@
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A436">
+      <c r="A436" s="2">
         <v>2</v>
       </c>
       <c r="B436" s="1" t="s">
@@ -5382,7 +5387,7 @@
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A437">
+      <c r="A437" s="2">
         <v>2</v>
       </c>
       <c r="B437" s="1" t="s">
@@ -5393,7 +5398,7 @@
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438">
+      <c r="A438" s="2">
         <v>2</v>
       </c>
       <c r="B438" s="1" t="s">
@@ -5404,7 +5409,7 @@
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A439">
+      <c r="A439" s="2">
         <v>2</v>
       </c>
       <c r="B439" s="1" t="s">
@@ -5415,7 +5420,7 @@
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A440">
+      <c r="A440" s="2">
         <v>2</v>
       </c>
       <c r="B440" s="1" t="s">
@@ -5426,7 +5431,7 @@
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A441">
+      <c r="A441" s="2">
         <v>2</v>
       </c>
       <c r="B441" s="1" t="s">
@@ -5437,7 +5442,7 @@
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A442">
+      <c r="A442" s="2">
         <v>2</v>
       </c>
       <c r="B442" s="1" t="s">
@@ -5448,7 +5453,7 @@
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A443">
+      <c r="A443" s="2">
         <v>2</v>
       </c>
       <c r="B443" s="1" t="s">
@@ -5459,7 +5464,7 @@
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A444">
+      <c r="A444" s="2">
         <v>1</v>
       </c>
       <c r="B444" s="1" t="s">
@@ -5470,7 +5475,7 @@
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A445">
+      <c r="A445" s="2">
         <v>1</v>
       </c>
       <c r="B445" s="1" t="s">
@@ -5481,7 +5486,7 @@
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A446">
+      <c r="A446" s="2">
         <v>8</v>
       </c>
       <c r="B446" s="1" t="s">
@@ -5492,7 +5497,7 @@
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A447">
+      <c r="A447" s="2">
         <v>8</v>
       </c>
       <c r="B447" s="1" t="s">
@@ -5503,7 +5508,7 @@
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A448">
+      <c r="A448" s="2">
         <v>8</v>
       </c>
       <c r="B448" s="1" t="s">
@@ -5514,7 +5519,7 @@
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A449">
+      <c r="A449" s="2">
         <v>8</v>
       </c>
       <c r="B449" s="1" t="s">
@@ -5525,7 +5530,7 @@
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A450">
+      <c r="A450" s="2">
         <v>8</v>
       </c>
       <c r="B450" s="1" t="s">
@@ -5536,7 +5541,7 @@
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A451">
+      <c r="A451" s="2">
         <v>8</v>
       </c>
       <c r="B451" s="1" t="s">
@@ -5547,7 +5552,7 @@
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A452">
+      <c r="A452" s="2">
         <v>8</v>
       </c>
       <c r="B452" s="1" t="s">
@@ -5558,7 +5563,7 @@
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A453">
+      <c r="A453" s="2">
         <v>8</v>
       </c>
       <c r="B453" s="1" t="s">
@@ -5569,7 +5574,7 @@
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A454">
+      <c r="A454" s="2">
         <v>8</v>
       </c>
       <c r="B454" s="1" t="s">
@@ -5580,7 +5585,7 @@
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A455">
+      <c r="A455" s="2">
         <v>8</v>
       </c>
       <c r="B455" s="1" t="s">
@@ -5591,7 +5596,7 @@
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A456">
+      <c r="A456" s="2">
         <v>8</v>
       </c>
       <c r="B456" s="1" t="s">
@@ -5602,7 +5607,7 @@
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A457">
+      <c r="A457" s="2">
         <v>8</v>
       </c>
       <c r="B457" s="1" t="s">
@@ -5613,7 +5618,7 @@
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A458">
+      <c r="A458" s="2">
         <v>8</v>
       </c>
       <c r="B458" s="1" t="s">
@@ -5624,7 +5629,7 @@
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A459">
+      <c r="A459" s="2">
         <v>8</v>
       </c>
       <c r="B459" s="1" t="s">
@@ -5635,7 +5640,7 @@
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A460">
+      <c r="A460" s="2">
         <v>8</v>
       </c>
       <c r="B460" s="1" t="s">
@@ -5646,7 +5651,7 @@
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A461">
+      <c r="A461" s="2">
         <v>8</v>
       </c>
       <c r="B461" s="1" t="s">
@@ -5657,7 +5662,7 @@
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A462">
+      <c r="A462" s="2">
         <v>8</v>
       </c>
       <c r="B462" s="1" t="s">
@@ -5668,7 +5673,7 @@
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A463">
+      <c r="A463" s="2">
         <v>8</v>
       </c>
       <c r="B463" s="1" t="s">
@@ -5679,7 +5684,7 @@
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A464">
+      <c r="A464" s="2">
         <v>8</v>
       </c>
       <c r="B464" s="1" t="s">
@@ -5690,7 +5695,7 @@
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A465">
+      <c r="A465" s="2">
         <v>8</v>
       </c>
       <c r="B465" s="1" t="s">
@@ -5701,7 +5706,7 @@
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A466">
+      <c r="A466" s="2">
         <v>8</v>
       </c>
       <c r="B466" s="1" t="s">
@@ -5712,7 +5717,7 @@
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A467">
+      <c r="A467" s="2">
         <v>8</v>
       </c>
       <c r="B467" s="1" t="s">
@@ -5723,7 +5728,7 @@
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A468">
+      <c r="A468" s="2">
         <v>8</v>
       </c>
       <c r="B468" s="1" t="s">
@@ -5734,7 +5739,7 @@
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A469">
+      <c r="A469" s="2">
         <v>8</v>
       </c>
       <c r="B469" s="1" t="s">
@@ -5745,7 +5750,7 @@
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A470">
+      <c r="A470" s="2">
         <v>12</v>
       </c>
       <c r="B470" s="1" t="s">
@@ -5756,7 +5761,7 @@
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A471">
+      <c r="A471" s="2">
         <v>12</v>
       </c>
       <c r="B471" s="1" t="s">
@@ -5767,7 +5772,7 @@
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A472">
+      <c r="A472" s="2">
         <v>12</v>
       </c>
       <c r="B472" s="1" t="s">
@@ -5778,7 +5783,7 @@
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A473">
+      <c r="A473" s="2">
         <v>12</v>
       </c>
       <c r="B473" s="1" t="s">
@@ -5789,7 +5794,7 @@
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A474">
+      <c r="A474" s="2">
         <v>7</v>
       </c>
       <c r="B474" s="1" t="s">
@@ -5800,7 +5805,7 @@
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A475">
+      <c r="A475" s="2">
         <v>7</v>
       </c>
       <c r="B475" s="1" t="s">
@@ -5811,7 +5816,7 @@
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A476">
+      <c r="A476" s="2">
         <v>7</v>
       </c>
       <c r="B476" s="1" t="s">
@@ -5822,7 +5827,7 @@
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A477">
+      <c r="A477" s="2">
         <v>7</v>
       </c>
       <c r="B477" s="1" t="s">
@@ -5833,7 +5838,7 @@
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A478">
+      <c r="A478" s="2">
         <v>6</v>
       </c>
       <c r="B478" s="1" t="s">
@@ -5844,7 +5849,7 @@
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A479">
+      <c r="A479" s="2">
         <v>6</v>
       </c>
       <c r="B479" s="1" t="s">
@@ -5855,7 +5860,7 @@
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A480">
+      <c r="A480" s="2">
         <v>6</v>
       </c>
       <c r="B480" s="1" t="s">
@@ -5866,7 +5871,7 @@
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A481">
+      <c r="A481" s="2">
         <v>6</v>
       </c>
       <c r="B481" s="1" t="s">
@@ -5877,7 +5882,7 @@
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A482">
+      <c r="A482" s="2">
         <v>6</v>
       </c>
       <c r="B482" s="1" t="s">
@@ -5888,7 +5893,7 @@
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A483">
+      <c r="A483" s="2">
         <v>6</v>
       </c>
       <c r="B483" s="1" t="s">
@@ -5899,7 +5904,7 @@
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A484">
+      <c r="A484" s="2">
         <v>5</v>
       </c>
       <c r="B484" s="1" t="s">
@@ -5910,7 +5915,7 @@
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A485">
+      <c r="A485" s="2">
         <v>5</v>
       </c>
       <c r="B485" s="1" t="s">
@@ -5921,7 +5926,7 @@
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A486">
+      <c r="A486" s="2">
         <v>5</v>
       </c>
       <c r="B486" s="1" t="s">
@@ -5932,7 +5937,7 @@
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A487">
+      <c r="A487" s="2">
         <v>5</v>
       </c>
       <c r="B487" s="1" t="s">
@@ -5943,7 +5948,7 @@
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A488">
+      <c r="A488" s="2">
         <v>4</v>
       </c>
       <c r="B488" s="1" t="s">
@@ -5954,7 +5959,7 @@
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A489">
+      <c r="A489" s="2">
         <v>3</v>
       </c>
       <c r="B489" s="1" t="s">
@@ -5965,7 +5970,7 @@
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A490">
+      <c r="A490" s="2">
         <v>3</v>
       </c>
       <c r="B490" s="1" t="s">
@@ -5976,7 +5981,7 @@
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A491">
+      <c r="A491" s="2">
         <v>3</v>
       </c>
       <c r="B491" s="1" t="s">
@@ -5987,7 +5992,7 @@
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A492">
+      <c r="A492" s="2">
         <v>3</v>
       </c>
       <c r="B492" s="1" t="s">
@@ -5998,7 +6003,7 @@
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A493">
+      <c r="A493" s="2">
         <v>2</v>
       </c>
       <c r="B493" s="1" t="s">
@@ -6009,7 +6014,7 @@
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A494">
+      <c r="A494" s="2">
         <v>2</v>
       </c>
       <c r="B494" s="1" t="s">
@@ -6020,7 +6025,7 @@
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A495">
+      <c r="A495" s="2">
         <v>1</v>
       </c>
       <c r="B495" s="1" t="s">
@@ -6031,7 +6036,7 @@
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A496">
+      <c r="A496" s="2">
         <v>1</v>
       </c>
       <c r="B496" s="1" t="s">
@@ -6042,7 +6047,7 @@
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A497">
+      <c r="A497" s="2">
         <v>1</v>
       </c>
       <c r="B497" s="1" t="s">
@@ -6053,7 +6058,7 @@
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A498">
+      <c r="A498" s="2">
         <v>7</v>
       </c>
       <c r="B498" s="1" t="s">
@@ -6064,7 +6069,7 @@
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A499">
+      <c r="A499" s="2">
         <v>7</v>
       </c>
       <c r="B499" s="1" t="s">
@@ -6075,7 +6080,7 @@
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A500">
+      <c r="A500" s="2">
         <v>7</v>
       </c>
       <c r="B500" s="1" t="s">
@@ -6086,7 +6091,7 @@
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A501">
+      <c r="A501" s="2">
         <v>7</v>
       </c>
       <c r="B501" s="1" t="s">
@@ -6097,7 +6102,7 @@
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A502">
+      <c r="A502" s="2">
         <v>7</v>
       </c>
       <c r="B502" s="1" t="s">
@@ -6108,7 +6113,7 @@
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A503">
+      <c r="A503" s="2">
         <v>7</v>
       </c>
       <c r="B503" s="1" t="s">
@@ -6119,7 +6124,7 @@
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A504">
+      <c r="A504" s="2">
         <v>7</v>
       </c>
       <c r="B504" s="1" t="s">
@@ -6130,7 +6135,7 @@
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A505">
+      <c r="A505" s="2">
         <v>7</v>
       </c>
       <c r="B505" s="1" t="s">
@@ -6141,7 +6146,7 @@
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A506">
+      <c r="A506" s="2">
         <v>7</v>
       </c>
       <c r="B506" s="1" t="s">
@@ -6152,7 +6157,7 @@
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A507">
+      <c r="A507" s="2">
         <v>7</v>
       </c>
       <c r="B507" s="1" t="s">
@@ -6163,7 +6168,7 @@
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A508">
+      <c r="A508" s="2">
         <v>7</v>
       </c>
       <c r="B508" s="1" t="s">
@@ -6174,7 +6179,7 @@
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A509">
+      <c r="A509" s="2">
         <v>7</v>
       </c>
       <c r="B509" s="1" t="s">
@@ -6185,7 +6190,7 @@
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A510">
+      <c r="A510" s="2">
         <v>7</v>
       </c>
       <c r="B510" s="1" t="s">
@@ -6196,7 +6201,7 @@
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A511">
+      <c r="A511" s="2">
         <v>7</v>
       </c>
       <c r="B511" s="1" t="s">
@@ -6207,7 +6212,7 @@
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A512">
+      <c r="A512" s="2">
         <v>7</v>
       </c>
       <c r="B512" s="1" t="s">
@@ -6218,7 +6223,7 @@
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A513">
+      <c r="A513" s="2">
         <v>7</v>
       </c>
       <c r="B513" s="1" t="s">
@@ -6229,7 +6234,7 @@
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A514">
+      <c r="A514" s="2">
         <v>7</v>
       </c>
       <c r="B514" s="1" t="s">
@@ -6240,7 +6245,7 @@
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A515">
+      <c r="A515" s="2">
         <v>7</v>
       </c>
       <c r="B515" s="1" t="s">
@@ -6251,7 +6256,7 @@
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A516">
+      <c r="A516" s="2">
         <v>7</v>
       </c>
       <c r="B516" s="1" t="s">
@@ -6262,7 +6267,7 @@
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A517">
+      <c r="A517" s="2">
         <v>12</v>
       </c>
       <c r="B517" s="1" t="s">
@@ -6273,7 +6278,7 @@
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A518">
+      <c r="A518" s="2">
         <v>12</v>
       </c>
       <c r="B518" s="1" t="s">
@@ -6284,7 +6289,7 @@
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A519">
+      <c r="A519" s="2">
         <v>10</v>
       </c>
       <c r="B519" s="1" t="s">
@@ -6295,7 +6300,7 @@
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A520">
+      <c r="A520" s="2">
         <v>6</v>
       </c>
       <c r="B520" s="1" t="s">
@@ -6306,7 +6311,7 @@
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A521">
+      <c r="A521" s="2">
         <v>5</v>
       </c>
       <c r="B521" s="1" t="s">
@@ -6317,7 +6322,7 @@
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A522">
+      <c r="A522" s="2">
         <v>4</v>
       </c>
       <c r="B522" s="1" t="s">
@@ -6328,7 +6333,7 @@
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A523">
+      <c r="A523" s="2">
         <v>4</v>
       </c>
       <c r="B523" s="1" t="s">
@@ -6339,7 +6344,7 @@
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A524">
+      <c r="A524" s="2">
         <v>4</v>
       </c>
       <c r="B524" s="1" t="s">
@@ -6350,7 +6355,7 @@
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A525">
+      <c r="A525" s="2">
         <v>4</v>
       </c>
       <c r="B525" s="1" t="s">
@@ -6361,7 +6366,7 @@
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A526">
+      <c r="A526" s="2">
         <v>4</v>
       </c>
       <c r="B526" s="1" t="s">
@@ -6372,7 +6377,7 @@
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A527">
+      <c r="A527" s="2">
         <v>4</v>
       </c>
       <c r="B527" s="1" t="s">
@@ -6383,7 +6388,7 @@
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A528">
+      <c r="A528" s="2">
         <v>4</v>
       </c>
       <c r="B528" s="1" t="s">
@@ -6394,7 +6399,7 @@
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A529">
+      <c r="A529" s="2">
         <v>4</v>
       </c>
       <c r="B529" s="1" t="s">
@@ -6405,7 +6410,7 @@
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A530">
+      <c r="A530" s="2">
         <v>3</v>
       </c>
       <c r="B530" s="1" t="s">
@@ -6416,7 +6421,7 @@
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A531">
+      <c r="A531" s="2">
         <v>3</v>
       </c>
       <c r="B531" s="1" t="s">
@@ -6427,7 +6432,7 @@
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A532">
+      <c r="A532" s="2">
         <v>3</v>
       </c>
       <c r="B532" s="1" t="s">
@@ -6438,7 +6443,7 @@
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A533">
+      <c r="A533" s="2">
         <v>3</v>
       </c>
       <c r="B533" s="1" t="s">
@@ -6449,7 +6454,7 @@
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A534">
+      <c r="A534" s="2">
         <v>3</v>
       </c>
       <c r="B534" s="1" t="s">
@@ -6460,7 +6465,7 @@
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A535">
+      <c r="A535" s="2">
         <v>2</v>
       </c>
       <c r="B535" s="1" t="s">
@@ -6471,7 +6476,7 @@
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A536">
+      <c r="A536" s="2">
         <v>2</v>
       </c>
       <c r="B536" s="1" t="s">
@@ -6482,7 +6487,7 @@
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A537">
+      <c r="A537" s="2">
         <v>2</v>
       </c>
       <c r="B537" s="1" t="s">
@@ -6493,7 +6498,7 @@
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A538">
+      <c r="A538" s="2">
         <v>2</v>
       </c>
       <c r="B538" s="1" t="s">
@@ -6504,7 +6509,7 @@
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A539">
+      <c r="A539" s="2">
         <v>1</v>
       </c>
       <c r="B539" s="1" t="s">
@@ -6515,7 +6520,7 @@
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A540">
+      <c r="A540" s="2">
         <v>6</v>
       </c>
       <c r="B540" s="1" t="s">
@@ -6526,7 +6531,7 @@
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A541">
+      <c r="A541" s="2">
         <v>6</v>
       </c>
       <c r="B541" s="1" t="s">
@@ -6537,7 +6542,7 @@
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A542">
+      <c r="A542" s="2">
         <v>6</v>
       </c>
       <c r="B542" s="1" t="s">
@@ -6548,7 +6553,7 @@
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A543">
+      <c r="A543" s="2">
         <v>6</v>
       </c>
       <c r="B543" s="1" t="s">
@@ -6559,7 +6564,7 @@
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A544">
+      <c r="A544" s="2">
         <v>6</v>
       </c>
       <c r="B544" s="1" t="s">
@@ -6570,7 +6575,7 @@
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A545">
+      <c r="A545" s="2">
         <v>6</v>
       </c>
       <c r="B545" s="1" t="s">
@@ -6581,7 +6586,7 @@
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A546">
+      <c r="A546" s="2">
         <v>6</v>
       </c>
       <c r="B546" s="1" t="s">
@@ -6592,7 +6597,7 @@
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A547">
+      <c r="A547" s="2">
         <v>6</v>
       </c>
       <c r="B547" s="1" t="s">
@@ -6603,7 +6608,7 @@
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A548">
+      <c r="A548" s="2">
         <v>6</v>
       </c>
       <c r="B548" s="1" t="s">
@@ -6614,7 +6619,7 @@
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A549">
+      <c r="A549" s="2">
         <v>6</v>
       </c>
       <c r="B549" s="1" t="s">
@@ -6625,7 +6630,7 @@
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A550">
+      <c r="A550" s="2">
         <v>6</v>
       </c>
       <c r="B550" s="1" t="s">
@@ -6636,7 +6641,7 @@
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A551">
+      <c r="A551" s="2">
         <v>6</v>
       </c>
       <c r="B551" s="1" t="s">
@@ -6647,7 +6652,7 @@
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A552">
+      <c r="A552" s="2">
         <v>12</v>
       </c>
       <c r="B552" s="1" t="s">
@@ -6658,7 +6663,7 @@
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A553">
+      <c r="A553" s="2">
         <v>9</v>
       </c>
       <c r="B553" s="1" t="s">
@@ -6669,7 +6674,7 @@
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A554">
+      <c r="A554" s="2">
         <v>5</v>
       </c>
       <c r="B554" s="1" t="s">
@@ -6680,7 +6685,7 @@
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A555">
+      <c r="A555" s="2">
         <v>5</v>
       </c>
       <c r="B555" s="1" t="s">
@@ -6691,7 +6696,7 @@
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A556">
+      <c r="A556" s="2">
         <v>4</v>
       </c>
       <c r="B556" s="1" t="s">
@@ -6702,7 +6707,7 @@
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A557">
+      <c r="A557" s="2">
         <v>4</v>
       </c>
       <c r="B557" s="1" t="s">
@@ -6713,7 +6718,7 @@
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A558">
+      <c r="A558" s="2">
         <v>3</v>
       </c>
       <c r="B558" s="1" t="s">
@@ -6724,7 +6729,7 @@
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A559">
+      <c r="A559" s="2">
         <v>3</v>
       </c>
       <c r="B559" s="1" t="s">
@@ -6735,7 +6740,7 @@
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A560">
+      <c r="A560" s="2">
         <v>1</v>
       </c>
       <c r="B560" s="1" t="s">
@@ -6746,7 +6751,7 @@
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A561">
+      <c r="A561" s="2">
         <v>1</v>
       </c>
       <c r="B561" s="1" t="s">
@@ -6757,7 +6762,7 @@
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A562">
+      <c r="A562" s="2">
         <v>5</v>
       </c>
       <c r="B562" s="1" t="s">
@@ -6768,7 +6773,7 @@
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A563">
+      <c r="A563" s="2">
         <v>5</v>
       </c>
       <c r="B563" s="1" t="s">
@@ -6779,7 +6784,7 @@
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A564">
+      <c r="A564" s="2">
         <v>5</v>
       </c>
       <c r="B564" s="1" t="s">
@@ -6790,7 +6795,7 @@
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A565">
+      <c r="A565" s="2">
         <v>5</v>
       </c>
       <c r="B565" s="1" t="s">
@@ -6801,7 +6806,7 @@
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A566">
+      <c r="A566" s="2">
         <v>5</v>
       </c>
       <c r="B566" s="1" t="s">
@@ -6812,7 +6817,7 @@
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A567">
+      <c r="A567" s="2">
         <v>5</v>
       </c>
       <c r="B567" s="1" t="s">
@@ -6823,7 +6828,7 @@
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A568">
+      <c r="A568" s="2">
         <v>5</v>
       </c>
       <c r="B568" s="1" t="s">
@@ -6834,7 +6839,7 @@
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A569">
+      <c r="A569" s="2">
         <v>5</v>
       </c>
       <c r="B569" s="1" t="s">
@@ -6845,7 +6850,7 @@
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A570">
+      <c r="A570" s="2">
         <v>5</v>
       </c>
       <c r="B570" s="1" t="s">
@@ -6856,7 +6861,7 @@
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A571">
+      <c r="A571" s="2">
         <v>5</v>
       </c>
       <c r="B571" s="1" t="s">
@@ -6867,7 +6872,7 @@
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A572">
+      <c r="A572" s="2">
         <v>12</v>
       </c>
       <c r="B572" s="1" t="s">
@@ -6878,7 +6883,7 @@
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A573">
+      <c r="A573" s="2">
         <v>11</v>
       </c>
       <c r="B573" s="1" t="s">
@@ -6889,7 +6894,7 @@
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A574">
+      <c r="A574" s="2">
         <v>7</v>
       </c>
       <c r="B574" s="1" t="s">
@@ -6900,7 +6905,7 @@
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A575">
+      <c r="A575" s="2">
         <v>7</v>
       </c>
       <c r="B575" s="1" t="s">
@@ -6911,7 +6916,7 @@
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A576">
+      <c r="A576" s="2">
         <v>7</v>
       </c>
       <c r="B576" s="1" t="s">
@@ -6922,7 +6927,7 @@
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A577">
+      <c r="A577" s="2">
         <v>5</v>
       </c>
       <c r="B577" s="1" t="s">
@@ -6933,7 +6938,7 @@
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A578">
+      <c r="A578" s="2">
         <v>4</v>
       </c>
       <c r="B578" s="1" t="s">
@@ -6944,7 +6949,7 @@
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A579">
+      <c r="A579" s="2">
         <v>3</v>
       </c>
       <c r="B579" s="1" t="s">
@@ -6955,7 +6960,7 @@
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A580">
+      <c r="A580" s="2">
         <v>3</v>
       </c>
       <c r="B580" s="1" t="s">
@@ -6966,7 +6971,7 @@
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A581">
+      <c r="A581" s="2">
         <v>2</v>
       </c>
       <c r="B581" s="1" t="s">
@@ -6977,7 +6982,7 @@
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A582">
+      <c r="A582" s="2">
         <v>1</v>
       </c>
       <c r="B582" s="1" t="s">
@@ -6988,7 +6993,7 @@
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A583">
+      <c r="A583" s="2">
         <v>4</v>
       </c>
       <c r="B583" s="1" t="s">
@@ -6999,7 +7004,7 @@
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A584">
+      <c r="A584" s="2">
         <v>4</v>
       </c>
       <c r="B584" s="1" t="s">
@@ -7010,7 +7015,7 @@
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A585">
+      <c r="A585" s="2">
         <v>4</v>
       </c>
       <c r="B585" s="1" t="s">
@@ -7021,7 +7026,7 @@
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A586">
+      <c r="A586" s="2">
         <v>4</v>
       </c>
       <c r="B586" s="1" t="s">
@@ -7032,7 +7037,7 @@
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A587">
+      <c r="A587" s="2">
         <v>12</v>
       </c>
       <c r="B587" s="1" t="s">
@@ -7043,7 +7048,7 @@
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A588">
+      <c r="A588" s="2">
         <v>8</v>
       </c>
       <c r="B588" s="1" t="s">
@@ -7054,7 +7059,7 @@
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A589">
+      <c r="A589" s="2">
         <v>7</v>
       </c>
       <c r="B589" s="1" t="s">
@@ -7065,7 +7070,7 @@
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A590">
+      <c r="A590" s="2">
         <v>4</v>
       </c>
       <c r="B590" s="1" t="s">
@@ -7076,7 +7081,7 @@
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A591">
+      <c r="A591" s="2">
         <v>2</v>
       </c>
       <c r="B591" s="1" t="s">
@@ -7087,7 +7092,7 @@
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A592">
+      <c r="A592" s="2">
         <v>2</v>
       </c>
       <c r="B592" s="1" t="s">
@@ -7098,7 +7103,7 @@
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A593">
+      <c r="A593" s="2">
         <v>1</v>
       </c>
       <c r="B593" s="1" t="s">
@@ -7109,7 +7114,7 @@
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A594">
+      <c r="A594" s="2">
         <v>1</v>
       </c>
       <c r="B594" s="1" t="s">
@@ -7120,7 +7125,7 @@
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A595">
+      <c r="A595" s="2">
         <v>1</v>
       </c>
       <c r="B595" s="1" t="s">
@@ -7131,7 +7136,7 @@
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A596">
+      <c r="A596" s="2">
         <v>3</v>
       </c>
       <c r="B596" s="1" t="s">
@@ -7142,7 +7147,7 @@
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A597">
+      <c r="A597" s="2">
         <v>3</v>
       </c>
       <c r="B597" s="1" t="s">
@@ -7153,7 +7158,7 @@
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A598">
+      <c r="A598" s="2">
         <v>3</v>
       </c>
       <c r="B598" s="1" t="s">
@@ -7164,7 +7169,7 @@
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A599">
+      <c r="A599" s="2">
         <v>3</v>
       </c>
       <c r="B599" s="1" t="s">
@@ -7175,7 +7180,7 @@
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A600">
+      <c r="A600" s="2">
         <v>3</v>
       </c>
       <c r="B600" s="1" t="s">
@@ -7186,7 +7191,7 @@
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A601">
+      <c r="A601" s="2">
         <v>3</v>
       </c>
       <c r="B601" s="1" t="s">
@@ -7197,7 +7202,7 @@
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A602">
+      <c r="A602" s="2">
         <v>3</v>
       </c>
       <c r="B602" s="1" t="s">
@@ -7208,7 +7213,7 @@
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A603">
+      <c r="A603" s="2">
         <v>3</v>
       </c>
       <c r="B603" s="1" t="s">
@@ -7219,7 +7224,7 @@
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A604">
+      <c r="A604" s="2">
         <v>9</v>
       </c>
       <c r="B604" s="1" t="s">
@@ -7230,7 +7235,7 @@
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A605">
+      <c r="A605" s="2">
         <v>6</v>
       </c>
       <c r="B605" s="1" t="s">
@@ -7241,7 +7246,7 @@
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A606">
+      <c r="A606" s="2">
         <v>6</v>
       </c>
       <c r="B606" s="1" t="s">
@@ -7252,7 +7257,7 @@
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A607">
+      <c r="A607" s="2">
         <v>5</v>
       </c>
       <c r="B607" s="1" t="s">
@@ -7263,7 +7268,7 @@
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A608">
+      <c r="A608" s="2">
         <v>5</v>
       </c>
       <c r="B608" s="1" t="s">
@@ -7274,7 +7279,7 @@
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A609">
+      <c r="A609" s="2">
         <v>4</v>
       </c>
       <c r="B609" s="1" t="s">
@@ -7285,7 +7290,7 @@
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A610">
+      <c r="A610" s="2">
         <v>3</v>
       </c>
       <c r="B610" s="1" t="s">
@@ -7296,7 +7301,7 @@
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A611">
+      <c r="A611" s="2">
         <v>3</v>
       </c>
       <c r="B611" s="1" t="s">
@@ -7307,7 +7312,7 @@
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A612">
+      <c r="A612" s="2">
         <v>2</v>
       </c>
       <c r="B612" s="1" t="s">
@@ -7318,7 +7323,7 @@
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A613">
+      <c r="A613" s="2">
         <v>2</v>
       </c>
       <c r="B613" s="1" t="s">
@@ -7329,7 +7334,7 @@
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A614">
+      <c r="A614" s="2">
         <v>2</v>
       </c>
       <c r="B614" s="1" t="s">
@@ -7340,7 +7345,7 @@
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A615">
+      <c r="A615" s="2">
         <v>2</v>
       </c>
       <c r="B615" s="1" t="s">
@@ -7351,7 +7356,7 @@
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A616">
+      <c r="A616" s="2">
         <v>2</v>
       </c>
       <c r="B616" s="1" t="s">
@@ -7362,7 +7367,7 @@
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A617">
+      <c r="A617" s="2">
         <v>2</v>
       </c>
       <c r="B617" s="1" t="s">
@@ -7373,7 +7378,7 @@
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A618">
+      <c r="A618" s="2">
         <v>2</v>
       </c>
       <c r="B618" s="1" t="s">
@@ -7384,7 +7389,7 @@
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A619">
+      <c r="A619" s="2">
         <v>2</v>
       </c>
       <c r="B619" s="1" t="s">
@@ -7395,7 +7400,7 @@
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A620">
+      <c r="A620" s="2">
         <v>2</v>
       </c>
       <c r="B620" s="1" t="s">
@@ -7406,7 +7411,7 @@
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A621">
+      <c r="A621" s="2">
         <v>2</v>
       </c>
       <c r="B621" s="1" t="s">
@@ -7417,7 +7422,7 @@
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A622">
+      <c r="A622" s="2">
         <v>2</v>
       </c>
       <c r="B622" s="1" t="s">
@@ -7428,7 +7433,7 @@
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A623">
+      <c r="A623" s="2">
         <v>10</v>
       </c>
       <c r="B623" s="1" t="s">
@@ -7439,7 +7444,7 @@
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A624">
+      <c r="A624" s="2">
         <v>8</v>
       </c>
       <c r="B624" s="1" t="s">
@@ -7450,7 +7455,7 @@
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A625">
+      <c r="A625" s="2">
         <v>1</v>
       </c>
       <c r="B625" s="1" t="s">
@@ -7461,7 +7466,7 @@
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A626">
+      <c r="A626" s="2">
         <v>1</v>
       </c>
       <c r="B626" s="1" t="s">
@@ -7472,7 +7477,7 @@
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A627">
+      <c r="A627" s="2">
         <v>1</v>
       </c>
       <c r="B627" s="1" t="s">
@@ -7483,7 +7488,7 @@
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A628">
+      <c r="A628" s="2">
         <v>1</v>
       </c>
       <c r="B628" s="1" t="s">
@@ -7494,7 +7499,7 @@
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A629">
+      <c r="A629" s="2">
         <v>1</v>
       </c>
       <c r="B629" s="1" t="s">
@@ -7505,7 +7510,7 @@
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A630">
+      <c r="A630" s="2">
         <v>1</v>
       </c>
       <c r="B630" s="1" t="s">
@@ -7516,7 +7521,7 @@
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A631">
+      <c r="A631" s="2">
         <v>1</v>
       </c>
       <c r="B631" s="1" t="s">
@@ -7527,7 +7532,7 @@
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A632">
+      <c r="A632" s="2">
         <v>1</v>
       </c>
       <c r="B632" s="1" t="s">
@@ -7538,7 +7543,7 @@
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A633">
+      <c r="A633" s="2">
         <v>6</v>
       </c>
       <c r="B633" s="1" t="s">
@@ -7549,7 +7554,7 @@
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A634">
+      <c r="A634" s="2">
         <v>2</v>
       </c>
       <c r="B634" s="1" t="s">
@@ -7560,7 +7565,7 @@
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A635">
+      <c r="A635" s="2">
         <v>2</v>
       </c>
       <c r="B635" s="1" t="s">
@@ -7572,8 +7577,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
